--- a/data/ch08/삼성전자_주가_데이터.xlsx
+++ b/data/ch08/삼성전자_주가_데이터.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyScraping\data\ch08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1931E3E-0C9E-4AB2-9249-164271D419C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="5175" windowWidth="12210" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Open</t>
   </si>
@@ -44,20 +38,32 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>2022-00-06/13/22</t>
+  </si>
+  <si>
+    <t>2022-00-06/14/22</t>
+  </si>
+  <si>
+    <t>2022-00-06/15/22</t>
+  </si>
+  <si>
+    <t>2022-00-06/16/22</t>
+  </si>
+  <si>
+    <t>2022-00-06/17/22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,15 +71,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,33 +111,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,27 +200,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,24 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,22 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -498,21 +442,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44725</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>62400</v>
+        <v>60560.12711352657</v>
       </c>
       <c r="C2">
-        <v>62800</v>
+        <v>60948.333056562</v>
       </c>
       <c r="D2">
-        <v>62100</v>
+        <v>60268.97265625</v>
       </c>
       <c r="E2">
-        <v>62100</v>
+        <v>60268.97265625</v>
       </c>
       <c r="F2">
         <v>22157816</v>
@@ -524,21 +468,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>44726</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>61200</v>
+        <v>59395.50681542811</v>
       </c>
       <c r="C3">
-        <v>62200</v>
+        <v>60366.02163267366</v>
       </c>
       <c r="D3">
-        <v>61100</v>
+        <v>59298.45533370355</v>
       </c>
       <c r="E3">
-        <v>61900</v>
+        <v>60074.8671875</v>
       </c>
       <c r="F3">
         <v>24606419</v>
@@ -550,21 +494,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>44727</v>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>61300</v>
+        <v>59492.55889621087</v>
       </c>
       <c r="C4">
-        <v>61500</v>
+        <v>59686.66186161449</v>
       </c>
       <c r="D4">
-        <v>60200</v>
+        <v>58424.99258649094</v>
       </c>
       <c r="E4">
-        <v>60700</v>
+        <v>58910.25</v>
       </c>
       <c r="F4">
         <v>26811224</v>
@@ -576,21 +520,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>44728</v>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>61300</v>
+        <v>59492.56141599959</v>
       </c>
       <c r="C5">
-        <v>61800</v>
+        <v>59977.81885006157</v>
       </c>
       <c r="D5">
-        <v>60500</v>
+        <v>58716.14952150041</v>
       </c>
       <c r="E5">
-        <v>60900</v>
+        <v>59104.35546875</v>
       </c>
       <c r="F5">
         <v>23394895</v>
@@ -602,21 +546,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>44729</v>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>59400</v>
+        <v>57648.57923547241</v>
       </c>
       <c r="C6">
-        <v>59900</v>
+        <v>58133.8366364444</v>
       </c>
       <c r="D6">
-        <v>59400</v>
+        <v>57648.57923547241</v>
       </c>
       <c r="E6">
-        <v>59800</v>
+        <v>58036.78515625</v>
       </c>
       <c r="F6">
         <v>29053450</v>
@@ -629,7 +573,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>